--- a/painting/E130b.xlsx
+++ b/painting/E130b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbaker/github/dcmi/dcap/painting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FF4260-A98C-AA4F-AAAC-7D95064872DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1AC89E-899D-C84C-9E9D-68E75B7CE267}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{AAAF9636-5162-F145-914D-17D4807C7D56}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>painting</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Annotation</t>
   </si>
 </sst>
 </file>
@@ -613,9 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97311BF0-D0F2-9B4E-808D-B118BF47D230}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="319" zoomScaleNormal="319" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="319" zoomScaleNormal="319" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -631,156 +629,156 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/painting/E130b.xlsx
+++ b/painting/E130b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbaker/github/dcmi/dcap/painting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1AC89E-899D-C84C-9E9D-68E75B7CE267}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A7A2D4-C9AB-2A4D-A13A-5D12ACF3176A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{AAAF9636-5162-F145-914D-17D4807C7D56}"/>
   </bookViews>
@@ -613,7 +613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97311BF0-D0F2-9B4E-808D-B118BF47D230}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="319" zoomScaleNormal="319" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="234" zoomScaleNormal="234" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -621,10 +623,10 @@
     <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7" style="10" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="10" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
